--- a/lojmanListesi.xlsx
+++ b/lojmanListesi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>sicil</t>
   </si>
@@ -50,55 +50,28 @@
     <t>PUAN</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>ruhi</t>
-  </si>
-  <si>
-    <t>fdf</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Halime</t>
+  </si>
+  <si>
+    <t>ÇELİK</t>
   </si>
   <si>
     <t>+10</t>
   </si>
   <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
     <t>+0</t>
   </si>
   <si>
-    <t>+6</t>
-  </si>
-  <si>
     <t>-0</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1458</t>
-  </si>
-  <si>
-    <t>ljk</t>
-  </si>
-  <si>
-    <t>jhj</t>
-  </si>
-  <si>
-    <t>+85</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>+14</t>
-  </si>
-  <si>
-    <t>96</t>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -143,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -207,63 +180,25 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5"/>
+    <row r="4"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
